--- a/web/PirateCardsLayaGame/design/Config/Common/Menu.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A054E7E-3C9E-4CA1-8714-923C28C69992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E118E200-2E09-4BA7-A9BD-451B273399A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,7 +1009,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1273,7 +1273,7 @@
         <v>-1</v>
       </c>
       <c r="L5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="17">
         <v>1</v>

--- a/web/PirateCardsLayaGame/design/Config/Common/Menu.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E118E200-2E09-4BA7-A9BD-451B273399A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D2EA1-99B7-4DD3-833D-EA8FB44FE62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1006,10 +1006,10 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1261,7 +1261,7 @@
         <v>41</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="17">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="17">
         <v>1</v>
@@ -1452,8 +1452,8 @@
         <v>4</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="2">
-        <v>0</v>
+      <c r="H9" s="17">
+        <v>3</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1499,8 +1499,8 @@
         <v>4</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="2">
-        <v>0</v>
+      <c r="H10" s="17">
+        <v>3</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1548,8 +1548,8 @@
         <v>4</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="2">
-        <v>0</v>
+      <c r="H11" s="17">
+        <v>3</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1597,8 +1597,8 @@
         <v>4</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="2">
-        <v>0</v>
+      <c r="H12" s="17">
+        <v>3</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1646,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="17">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="17">
         <v>4</v>
